--- a/data/pca/factorExposure/factorExposure_2014-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.004127977946988987</v>
+        <v>0.008058333540609534</v>
       </c>
       <c r="C2">
-        <v>0.08218004317873132</v>
+        <v>0.07325819843414114</v>
       </c>
       <c r="D2">
-        <v>-0.1357798906553013</v>
+        <v>0.004044524532175488</v>
       </c>
       <c r="E2">
-        <v>-0.1613221973522441</v>
+        <v>0.1752944218625784</v>
       </c>
       <c r="F2">
-        <v>-0.1615282361658996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04597965361509425</v>
+      </c>
+      <c r="G2">
+        <v>0.05517076536380577</v>
+      </c>
+      <c r="H2">
+        <v>-0.06766324681986523</v>
+      </c>
+      <c r="I2">
+        <v>0.1007191941871935</v>
+      </c>
+      <c r="J2">
+        <v>0.2266910018466441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01820426144980385</v>
+        <v>0.01329257779555754</v>
       </c>
       <c r="C4">
-        <v>0.1519275848195371</v>
+        <v>0.1525772774130773</v>
       </c>
       <c r="D4">
-        <v>-0.06340385428233383</v>
+        <v>-0.02859485354603725</v>
       </c>
       <c r="E4">
-        <v>-0.07641544011141058</v>
+        <v>0.09873614021933054</v>
       </c>
       <c r="F4">
-        <v>0.05309138741346736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06278201253294874</v>
+      </c>
+      <c r="G4">
+        <v>0.0004056697095991802</v>
+      </c>
+      <c r="H4">
+        <v>-0.1089328006258671</v>
+      </c>
+      <c r="I4">
+        <v>-0.02860908929265972</v>
+      </c>
+      <c r="J4">
+        <v>0.1413851012331113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01566266627120532</v>
+        <v>0.03165519302522499</v>
       </c>
       <c r="C6">
-        <v>0.07130296741200988</v>
+        <v>0.07312728242685572</v>
       </c>
       <c r="D6">
-        <v>-0.05590404747099898</v>
+        <v>-0.008635634770394793</v>
       </c>
       <c r="E6">
-        <v>-0.095394886485758</v>
+        <v>0.1090551045619495</v>
       </c>
       <c r="F6">
-        <v>0.02385570607825135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02965651439770766</v>
+      </c>
+      <c r="G6">
+        <v>-0.05031479018077027</v>
+      </c>
+      <c r="H6">
+        <v>-0.02995724231408983</v>
+      </c>
+      <c r="I6">
+        <v>0.04929037658995577</v>
+      </c>
+      <c r="J6">
+        <v>0.02031061806377763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0164802066391666</v>
+        <v>0.006928927366608177</v>
       </c>
       <c r="C7">
-        <v>0.05190367349641945</v>
+        <v>0.06701727181988983</v>
       </c>
       <c r="D7">
-        <v>-0.02635236331443499</v>
+        <v>-0.006016596138301455</v>
       </c>
       <c r="E7">
-        <v>-0.06312933326200243</v>
+        <v>0.04883602959014176</v>
       </c>
       <c r="F7">
-        <v>0.01452586609430364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02036505103587007</v>
+      </c>
+      <c r="G7">
+        <v>-0.06711907427748762</v>
+      </c>
+      <c r="H7">
+        <v>-0.08158456855686483</v>
+      </c>
+      <c r="I7">
+        <v>0.00226503453504697</v>
+      </c>
+      <c r="J7">
+        <v>0.03545344606673202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01435600355475691</v>
+        <v>-0.008555577701163974</v>
       </c>
       <c r="C8">
-        <v>0.07890198081382944</v>
+        <v>0.07413649312718573</v>
       </c>
       <c r="D8">
-        <v>-0.04629775653659837</v>
+        <v>-0.02760067069517509</v>
       </c>
       <c r="E8">
-        <v>-0.1331623089852754</v>
+        <v>0.09081822341510151</v>
       </c>
       <c r="F8">
-        <v>-0.06329169199865076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02526525367314926</v>
+      </c>
+      <c r="G8">
+        <v>0.05655263591853477</v>
+      </c>
+      <c r="H8">
+        <v>-0.03392180140809764</v>
+      </c>
+      <c r="I8">
+        <v>0.004658216181387575</v>
+      </c>
+      <c r="J8">
+        <v>0.007664224862961695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.008684102915597599</v>
+        <v>0.007817181122496766</v>
       </c>
       <c r="C9">
-        <v>0.1293159490300191</v>
+        <v>0.118069732986175</v>
       </c>
       <c r="D9">
-        <v>-0.03807777540876608</v>
+        <v>-0.02103480240717873</v>
       </c>
       <c r="E9">
-        <v>-0.06249566194759929</v>
+        <v>0.05866323087205884</v>
       </c>
       <c r="F9">
-        <v>0.03949144654431295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01079833943308384</v>
+      </c>
+      <c r="G9">
+        <v>-0.00764471032528111</v>
+      </c>
+      <c r="H9">
+        <v>-0.1012784923302261</v>
+      </c>
+      <c r="I9">
+        <v>0.00122437891560918</v>
+      </c>
+      <c r="J9">
+        <v>0.06234724623654306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2586564044802526</v>
+        <v>0.2507460541909082</v>
       </c>
       <c r="C10">
-        <v>-0.08818055988446877</v>
+        <v>-0.08224391617353789</v>
       </c>
       <c r="D10">
-        <v>-0.04170325851675946</v>
+        <v>0.00437223606050087</v>
       </c>
       <c r="E10">
-        <v>0.04059442949549964</v>
+        <v>0.01502611133535866</v>
       </c>
       <c r="F10">
-        <v>0.002788199809226071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01444722238012027</v>
+      </c>
+      <c r="G10">
+        <v>-0.01307330540971172</v>
+      </c>
+      <c r="H10">
+        <v>-0.02871532160793131</v>
+      </c>
+      <c r="I10">
+        <v>-0.1693960554190829</v>
+      </c>
+      <c r="J10">
+        <v>-0.09076602280979236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.004945634095428066</v>
+        <v>0.01107625566205323</v>
       </c>
       <c r="C11">
-        <v>0.06433802698613122</v>
+        <v>0.08047370824631594</v>
       </c>
       <c r="D11">
-        <v>-0.01453093619421483</v>
+        <v>-0.02051600540763408</v>
       </c>
       <c r="E11">
-        <v>-0.03363118298740473</v>
+        <v>0.01871696167895481</v>
       </c>
       <c r="F11">
-        <v>0.0725463385942921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.009951196811651138</v>
+      </c>
+      <c r="G11">
+        <v>-0.03385091035811026</v>
+      </c>
+      <c r="H11">
+        <v>-0.0271884121856972</v>
+      </c>
+      <c r="I11">
+        <v>-0.005980718734096345</v>
+      </c>
+      <c r="J11">
+        <v>-0.03604579394742127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.004347082471255117</v>
+        <v>0.01174678217501854</v>
       </c>
       <c r="C12">
-        <v>0.06059039214216089</v>
+        <v>0.06306438128155684</v>
       </c>
       <c r="D12">
-        <v>-0.0107498794134488</v>
+        <v>-0.009396615153423257</v>
       </c>
       <c r="E12">
-        <v>-0.02443752153748769</v>
+        <v>0.01728606872318845</v>
       </c>
       <c r="F12">
-        <v>0.05772307301720086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01984660486492602</v>
+      </c>
+      <c r="G12">
+        <v>-0.03855515311273913</v>
+      </c>
+      <c r="H12">
+        <v>-0.02854505078251761</v>
+      </c>
+      <c r="I12">
+        <v>-0.01151356320648539</v>
+      </c>
+      <c r="J12">
+        <v>-0.01104967309646019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.007021328850873081</v>
+        <v>0.001017299108842476</v>
       </c>
       <c r="C13">
-        <v>0.09022379819562124</v>
+        <v>0.1104768645374154</v>
       </c>
       <c r="D13">
-        <v>-0.06039294940742761</v>
+        <v>-0.002326053686550566</v>
       </c>
       <c r="E13">
-        <v>-0.1282115534493919</v>
+        <v>0.1508050690168376</v>
       </c>
       <c r="F13">
-        <v>0.1281248838076047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1015348320819579</v>
+      </c>
+      <c r="G13">
+        <v>-0.09185665181671279</v>
+      </c>
+      <c r="H13">
+        <v>-0.07358168704687959</v>
+      </c>
+      <c r="I13">
+        <v>-0.1268175563940867</v>
+      </c>
+      <c r="J13">
+        <v>-0.06918319872729869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.001820498279195897</v>
+        <v>0.01139505371577592</v>
       </c>
       <c r="C14">
-        <v>0.05768237463865158</v>
+        <v>0.07592198918271612</v>
       </c>
       <c r="D14">
-        <v>-0.03052128687512331</v>
+        <v>-0.02363206392862028</v>
       </c>
       <c r="E14">
-        <v>-0.05132540662648648</v>
+        <v>0.08035324660542613</v>
       </c>
       <c r="F14">
-        <v>0.03792426462538745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03683184041819358</v>
+      </c>
+      <c r="G14">
+        <v>-0.1060379090759438</v>
+      </c>
+      <c r="H14">
+        <v>-0.180347650017612</v>
+      </c>
+      <c r="I14">
+        <v>0.02397646176906907</v>
+      </c>
+      <c r="J14">
+        <v>-0.15588863412753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.001729602731734437</v>
+        <v>-0.001617908995576859</v>
       </c>
       <c r="C15">
-        <v>0.07384483423759064</v>
+        <v>0.07229498588944186</v>
       </c>
       <c r="D15">
-        <v>-0.04254262245074768</v>
+        <v>-0.01265655989808011</v>
       </c>
       <c r="E15">
-        <v>-0.09471151131315597</v>
+        <v>0.0636264920262688</v>
       </c>
       <c r="F15">
-        <v>0.03353687689381786</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.0052290781227399</v>
+      </c>
+      <c r="G15">
+        <v>-0.04197692412713394</v>
+      </c>
+      <c r="H15">
+        <v>-0.06133821482687885</v>
+      </c>
+      <c r="I15">
+        <v>0.006940233151567771</v>
+      </c>
+      <c r="J15">
+        <v>-0.04940085829940703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.008063804662954725</v>
+        <v>0.01116289351282644</v>
       </c>
       <c r="C16">
-        <v>0.05951121848660133</v>
+        <v>0.06724774463863739</v>
       </c>
       <c r="D16">
-        <v>-0.01636422732897235</v>
+        <v>-0.0102620399347693</v>
       </c>
       <c r="E16">
-        <v>-0.02082249572291683</v>
+        <v>0.01153961779836607</v>
       </c>
       <c r="F16">
-        <v>0.05963710098900072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001201039761913803</v>
+      </c>
+      <c r="G16">
+        <v>-0.03377770135023169</v>
+      </c>
+      <c r="H16">
+        <v>-0.02580641039065871</v>
+      </c>
+      <c r="I16">
+        <v>-0.009830950065292415</v>
+      </c>
+      <c r="J16">
+        <v>-0.01022314465557685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.003654337213358654</v>
+        <v>0.006692378502317657</v>
       </c>
       <c r="C20">
-        <v>0.07159889162831269</v>
+        <v>0.08499038493441004</v>
       </c>
       <c r="D20">
-        <v>-0.04416952196759374</v>
+        <v>-0.002645059585714087</v>
       </c>
       <c r="E20">
-        <v>-0.05239015749290469</v>
+        <v>0.03815981719207499</v>
       </c>
       <c r="F20">
-        <v>0.09727356594527288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01789228033491343</v>
+      </c>
+      <c r="G20">
+        <v>-0.07523312189238424</v>
+      </c>
+      <c r="H20">
+        <v>-0.05752954532071528</v>
+      </c>
+      <c r="I20">
+        <v>0.004904646467463455</v>
+      </c>
+      <c r="J20">
+        <v>0.003121294361209674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.000446536709723839</v>
+        <v>0.007990015691187763</v>
       </c>
       <c r="C21">
-        <v>0.09165831876477898</v>
+        <v>0.08531867410797689</v>
       </c>
       <c r="D21">
-        <v>-0.0774529678298644</v>
+        <v>-0.00480456317408321</v>
       </c>
       <c r="E21">
-        <v>-0.03765628021220264</v>
+        <v>0.06627946182129034</v>
       </c>
       <c r="F21">
-        <v>-0.008798526910158835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07701363833027088</v>
+      </c>
+      <c r="G21">
+        <v>-0.02011313602815996</v>
+      </c>
+      <c r="H21">
+        <v>-0.1540100356260727</v>
+      </c>
+      <c r="I21">
+        <v>-0.03619598615667301</v>
+      </c>
+      <c r="J21">
+        <v>-0.03813177832406919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.0119263227463494</v>
+        <v>-0.01558735217444963</v>
       </c>
       <c r="C22">
-        <v>0.1335908572032149</v>
+        <v>0.1448054068329948</v>
       </c>
       <c r="D22">
-        <v>-0.2469834500277162</v>
+        <v>0.02858479932046732</v>
       </c>
       <c r="E22">
-        <v>-0.2144555832928906</v>
+        <v>0.3996153246853426</v>
       </c>
       <c r="F22">
-        <v>-0.1975552349216182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1361696332020133</v>
+      </c>
+      <c r="G22">
+        <v>0.2770886867108698</v>
+      </c>
+      <c r="H22">
+        <v>0.3543093690944061</v>
+      </c>
+      <c r="I22">
+        <v>-0.03159831030159002</v>
+      </c>
+      <c r="J22">
+        <v>-0.1981703041125396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01242601686992144</v>
+        <v>-0.01192417492460266</v>
       </c>
       <c r="C23">
-        <v>0.1352012161045599</v>
+        <v>0.1492141743541308</v>
       </c>
       <c r="D23">
-        <v>-0.2454827126230168</v>
+        <v>0.03091531384000992</v>
       </c>
       <c r="E23">
-        <v>-0.2125779962600695</v>
+        <v>0.3899638575934307</v>
       </c>
       <c r="F23">
-        <v>-0.1973135214020844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1294397450073234</v>
+      </c>
+      <c r="G23">
+        <v>0.2675871842842278</v>
+      </c>
+      <c r="H23">
+        <v>0.3306608104065455</v>
+      </c>
+      <c r="I23">
+        <v>-0.0354943574293899</v>
+      </c>
+      <c r="J23">
+        <v>-0.1885359200220252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001678563404760722</v>
+        <v>0.01150469736567044</v>
       </c>
       <c r="C24">
-        <v>0.07661512406745953</v>
+        <v>0.07782102735038091</v>
       </c>
       <c r="D24">
-        <v>-0.004999204199059928</v>
+        <v>-0.02549860052484026</v>
       </c>
       <c r="E24">
-        <v>-0.04183854563115251</v>
+        <v>0.0218232547554055</v>
       </c>
       <c r="F24">
-        <v>0.06220706196658046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.00348649807082153</v>
+      </c>
+      <c r="G24">
+        <v>-0.03873017865602878</v>
+      </c>
+      <c r="H24">
+        <v>-0.03895469235904381</v>
+      </c>
+      <c r="I24">
+        <v>-0.004068226485992928</v>
+      </c>
+      <c r="J24">
+        <v>-0.01654517151409462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.009220798239949922</v>
+        <v>0.01764687647606251</v>
       </c>
       <c r="C25">
-        <v>0.0725692676584066</v>
+        <v>0.07582694877619257</v>
       </c>
       <c r="D25">
-        <v>-0.0114244859620335</v>
+        <v>-0.0152349719485071</v>
       </c>
       <c r="E25">
-        <v>-0.01757270776286813</v>
+        <v>0.01562465542775185</v>
       </c>
       <c r="F25">
-        <v>0.05873114634650815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.007462780854370125</v>
+      </c>
+      <c r="G25">
+        <v>-0.03173502527665949</v>
+      </c>
+      <c r="H25">
+        <v>-0.02778308124366894</v>
+      </c>
+      <c r="I25">
+        <v>-0.01730572449995385</v>
+      </c>
+      <c r="J25">
+        <v>-0.0359870621617818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.005298638861850337</v>
+        <v>0.01715751931386097</v>
       </c>
       <c r="C26">
-        <v>0.05276457005486036</v>
+        <v>0.06356651340824122</v>
       </c>
       <c r="D26">
-        <v>-0.01601648507121138</v>
+        <v>-0.04360240425793076</v>
       </c>
       <c r="E26">
-        <v>-0.05389114105286146</v>
+        <v>0.03209364202171773</v>
       </c>
       <c r="F26">
-        <v>0.02972967870808701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006342842256072287</v>
+      </c>
+      <c r="G26">
+        <v>-0.03426936939766796</v>
+      </c>
+      <c r="H26">
+        <v>-0.115616769758629</v>
+      </c>
+      <c r="I26">
+        <v>-0.01670837026030569</v>
+      </c>
+      <c r="J26">
+        <v>0.07571237938731563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3380258907563964</v>
+        <v>0.3178055541675546</v>
       </c>
       <c r="C28">
-        <v>-0.1003600369831589</v>
+        <v>-0.1034962940691832</v>
       </c>
       <c r="D28">
-        <v>-0.03950086071959653</v>
+        <v>0.0230266016029311</v>
       </c>
       <c r="E28">
-        <v>0.06831901924050884</v>
+        <v>0.01764218039553124</v>
       </c>
       <c r="F28">
-        <v>-0.01436024262804459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04459368160928243</v>
+      </c>
+      <c r="G28">
+        <v>0.07675048071835558</v>
+      </c>
+      <c r="H28">
+        <v>-0.08238454138309591</v>
+      </c>
+      <c r="I28">
+        <v>-0.1717258584295513</v>
+      </c>
+      <c r="J28">
+        <v>0.05821568192759063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.001648260192033178</v>
+        <v>0.00713904349719741</v>
       </c>
       <c r="C29">
-        <v>0.0588324535352264</v>
+        <v>0.08033336303275941</v>
       </c>
       <c r="D29">
-        <v>-0.04279505695315345</v>
+        <v>-0.02102053423512619</v>
       </c>
       <c r="E29">
-        <v>-0.0920506085024333</v>
+        <v>0.1226540478995725</v>
       </c>
       <c r="F29">
-        <v>0.07709570506965269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04926557601939928</v>
+      </c>
+      <c r="G29">
+        <v>-0.1625257957057537</v>
+      </c>
+      <c r="H29">
+        <v>-0.2536748330906128</v>
+      </c>
+      <c r="I29">
+        <v>0.04288336051772263</v>
+      </c>
+      <c r="J29">
+        <v>-0.2347650091119575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01546784322865626</v>
+        <v>0.01806116955509884</v>
       </c>
       <c r="C30">
-        <v>0.1761240614421798</v>
+        <v>0.1577295864402848</v>
       </c>
       <c r="D30">
-        <v>-0.03672857765928419</v>
+        <v>-0.03455518951137131</v>
       </c>
       <c r="E30">
-        <v>-0.08859001006382164</v>
+        <v>0.07340296976032326</v>
       </c>
       <c r="F30">
-        <v>0.01254616273456152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02107478022260252</v>
+      </c>
+      <c r="G30">
+        <v>0.01038920324578165</v>
+      </c>
+      <c r="H30">
+        <v>-0.02862033379447384</v>
+      </c>
+      <c r="I30">
+        <v>0.01465335521907654</v>
+      </c>
+      <c r="J30">
+        <v>0.07975647556859133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.007294766582348713</v>
+        <v>0.006099109485713575</v>
       </c>
       <c r="C31">
-        <v>0.09859272100964624</v>
+        <v>0.09814101268455083</v>
       </c>
       <c r="D31">
-        <v>0.03482407488561362</v>
+        <v>-0.03057766981322082</v>
       </c>
       <c r="E31">
-        <v>0.00997964810865787</v>
+        <v>-0.01417207012952788</v>
       </c>
       <c r="F31">
-        <v>-0.02681415781360588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002043030772001864</v>
+      </c>
+      <c r="G31">
+        <v>0.02992293111203496</v>
+      </c>
+      <c r="H31">
+        <v>-0.04975655560003931</v>
+      </c>
+      <c r="I31">
+        <v>-0.03439518036499779</v>
+      </c>
+      <c r="J31">
+        <v>-0.04638513626971324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.024246620481133</v>
+        <v>0.02165910578428212</v>
       </c>
       <c r="C32">
-        <v>0.07634107833267784</v>
+        <v>0.06879527177718935</v>
       </c>
       <c r="D32">
-        <v>-0.110632103560822</v>
+        <v>0.01031422019119249</v>
       </c>
       <c r="E32">
-        <v>-0.08507006249820132</v>
+        <v>0.127844972996471</v>
       </c>
       <c r="F32">
-        <v>0.02416104115727834</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03376259113858475</v>
+      </c>
+      <c r="G32">
+        <v>-0.02744699381099934</v>
+      </c>
+      <c r="H32">
+        <v>-0.1078208610793615</v>
+      </c>
+      <c r="I32">
+        <v>-0.237663590108392</v>
+      </c>
+      <c r="J32">
+        <v>0.04245126589994854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.001230203128761562</v>
+        <v>0.00953646165858037</v>
       </c>
       <c r="C33">
-        <v>0.09403092411191032</v>
+        <v>0.1111797061527138</v>
       </c>
       <c r="D33">
-        <v>-0.01452312048057152</v>
+        <v>-0.01704028687874481</v>
       </c>
       <c r="E33">
-        <v>-0.05644496406716689</v>
+        <v>0.0485297066099802</v>
       </c>
       <c r="F33">
-        <v>0.03918765406445628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004194927081452338</v>
+      </c>
+      <c r="G33">
+        <v>-0.03937763452906622</v>
+      </c>
+      <c r="H33">
+        <v>-0.05143731246854204</v>
+      </c>
+      <c r="I33">
+        <v>-0.02769872397494486</v>
+      </c>
+      <c r="J33">
+        <v>-0.01517623057278919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.002150443762825607</v>
+        <v>0.01289054099649346</v>
       </c>
       <c r="C34">
-        <v>0.05797509856982097</v>
+        <v>0.05607691759376907</v>
       </c>
       <c r="D34">
-        <v>-0.001987402457928657</v>
+        <v>-0.01432659237883411</v>
       </c>
       <c r="E34">
-        <v>-0.02079795649097044</v>
+        <v>0.008072951658755663</v>
       </c>
       <c r="F34">
-        <v>0.04405463182731526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.007885890962719112</v>
+      </c>
+      <c r="G34">
+        <v>-0.02785153819517756</v>
+      </c>
+      <c r="H34">
+        <v>-0.00151333629149136</v>
+      </c>
+      <c r="I34">
+        <v>-0.0215687879264008</v>
+      </c>
+      <c r="J34">
+        <v>-0.01706311806318704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001974046697638427</v>
+        <v>0.006390448349853281</v>
       </c>
       <c r="C35">
-        <v>0.009576791855295304</v>
+        <v>0.03648854469533872</v>
       </c>
       <c r="D35">
-        <v>-0.008569956362133769</v>
+        <v>-0.005906966445748321</v>
       </c>
       <c r="E35">
-        <v>-0.01107363706915737</v>
+        <v>0.04034168853145449</v>
       </c>
       <c r="F35">
-        <v>0.01739813145040253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01015930957883032</v>
+      </c>
+      <c r="G35">
+        <v>-0.06813271777834545</v>
+      </c>
+      <c r="H35">
+        <v>-0.1227662194129681</v>
+      </c>
+      <c r="I35">
+        <v>-0.007049882680870563</v>
+      </c>
+      <c r="J35">
+        <v>-0.1719137562140688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.002667768880988803</v>
+        <v>0.008932196501872183</v>
       </c>
       <c r="C36">
-        <v>0.04448766722474793</v>
+        <v>0.04965250249123838</v>
       </c>
       <c r="D36">
-        <v>-0.01084993541685114</v>
+        <v>-0.03232852887882966</v>
       </c>
       <c r="E36">
-        <v>-0.06620456488265618</v>
+        <v>0.04317189945061486</v>
       </c>
       <c r="F36">
-        <v>0.02599662564340834</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002170117185298776</v>
+      </c>
+      <c r="G36">
+        <v>-0.02807475007927349</v>
+      </c>
+      <c r="H36">
+        <v>-0.06489733547754377</v>
+      </c>
+      <c r="I36">
+        <v>-0.00857329281074159</v>
+      </c>
+      <c r="J36">
+        <v>0.0209395712000333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01191522344226873</v>
+        <v>0.008212480035734665</v>
       </c>
       <c r="C38">
-        <v>0.04932694571413222</v>
+        <v>0.06490007375125378</v>
       </c>
       <c r="D38">
-        <v>-0.02060397507333775</v>
+        <v>-0.01975230921290512</v>
       </c>
       <c r="E38">
-        <v>-0.05168223900254173</v>
+        <v>0.04587911785956739</v>
       </c>
       <c r="F38">
-        <v>0.009168475689638442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.0449083839535463</v>
+      </c>
+      <c r="G38">
+        <v>-0.02051022931155186</v>
+      </c>
+      <c r="H38">
+        <v>-0.05250608595907557</v>
+      </c>
+      <c r="I38">
+        <v>-0.0309946782278311</v>
+      </c>
+      <c r="J38">
+        <v>-0.0465597391622956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001644287956872684</v>
+        <v>0.00815031590768312</v>
       </c>
       <c r="C39">
-        <v>0.1353362488848771</v>
+        <v>0.1320480400720905</v>
       </c>
       <c r="D39">
-        <v>-0.0269391816243022</v>
+        <v>-0.03645766836250822</v>
       </c>
       <c r="E39">
-        <v>-0.06272740428963731</v>
+        <v>0.03211093121948144</v>
       </c>
       <c r="F39">
-        <v>0.07628700323329332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01668287880357883</v>
+      </c>
+      <c r="G39">
+        <v>-0.0592649201919043</v>
+      </c>
+      <c r="H39">
+        <v>-0.03629933261110942</v>
+      </c>
+      <c r="I39">
+        <v>0.03255385432375812</v>
+      </c>
+      <c r="J39">
+        <v>-0.0009098789364543154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.004939225951990927</v>
+        <v>0.00978414408117555</v>
       </c>
       <c r="C40">
-        <v>0.02941204019283333</v>
+        <v>0.06079116244180301</v>
       </c>
       <c r="D40">
-        <v>-0.03509065418838141</v>
+        <v>-0.01158830501901971</v>
       </c>
       <c r="E40">
-        <v>-0.1256397242968038</v>
+        <v>0.1218762043385046</v>
       </c>
       <c r="F40">
-        <v>0.02583375659397658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02179533796560027</v>
+      </c>
+      <c r="G40">
+        <v>-0.1076547915514295</v>
+      </c>
+      <c r="H40">
+        <v>0.01731164949739259</v>
+      </c>
+      <c r="I40">
+        <v>-0.03075569203783839</v>
+      </c>
+      <c r="J40">
+        <v>-0.1948191540140335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.006714591015098617</v>
+        <v>0.01828545028813388</v>
       </c>
       <c r="C41">
-        <v>0.0212131461685253</v>
+        <v>0.04847229108332762</v>
       </c>
       <c r="D41">
-        <v>0.0005179797956868403</v>
+        <v>-0.007408792554395568</v>
       </c>
       <c r="E41">
-        <v>0.01070920965939135</v>
+        <v>-0.002742783507983211</v>
       </c>
       <c r="F41">
-        <v>-0.01136205498531413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00690201540885666</v>
+      </c>
+      <c r="G41">
+        <v>-0.01301099664008051</v>
+      </c>
+      <c r="H41">
+        <v>-0.03001973691542089</v>
+      </c>
+      <c r="I41">
+        <v>-0.04259886389890161</v>
+      </c>
+      <c r="J41">
+        <v>-0.06055168266624737</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.002642532225424983</v>
+        <v>0.0109045318469671</v>
       </c>
       <c r="C43">
-        <v>0.0160657561534268</v>
+        <v>0.04299591219114505</v>
       </c>
       <c r="D43">
-        <v>-0.01348625061257706</v>
+        <v>-0.01534700458028074</v>
       </c>
       <c r="E43">
-        <v>-0.02723125087703269</v>
+        <v>0.02066869196202693</v>
       </c>
       <c r="F43">
-        <v>0.0307619647302929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01445744383859303</v>
+      </c>
+      <c r="G43">
+        <v>-0.02967929612692184</v>
+      </c>
+      <c r="H43">
+        <v>-0.04188440193674382</v>
+      </c>
+      <c r="I43">
+        <v>-0.01605310822461442</v>
+      </c>
+      <c r="J43">
+        <v>-0.04517736382357222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01775833478050111</v>
+        <v>0.006456550490050141</v>
       </c>
       <c r="C44">
-        <v>0.08002945154151068</v>
+        <v>0.08564648111951824</v>
       </c>
       <c r="D44">
-        <v>-0.05648031910525247</v>
+        <v>-0.03669882996341939</v>
       </c>
       <c r="E44">
-        <v>-0.1050673128311794</v>
+        <v>0.09986684265142177</v>
       </c>
       <c r="F44">
-        <v>0.02577741048903596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.009299175296520707</v>
+      </c>
+      <c r="G44">
+        <v>-0.02402536308555542</v>
+      </c>
+      <c r="H44">
+        <v>-0.02701855016523649</v>
+      </c>
+      <c r="I44">
+        <v>0.04324105999113433</v>
+      </c>
+      <c r="J44">
+        <v>0.03736406315891108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.003627901362691846</v>
+        <v>0.0003125713904274588</v>
       </c>
       <c r="C46">
-        <v>0.06068162850323245</v>
+        <v>0.06573639638676167</v>
       </c>
       <c r="D46">
-        <v>-0.02910970905455542</v>
+        <v>-0.01628168548049587</v>
       </c>
       <c r="E46">
-        <v>-0.05723112168323502</v>
+        <v>0.04329560601402342</v>
       </c>
       <c r="F46">
-        <v>0.05123270108471435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.004634724919718259</v>
+      </c>
+      <c r="G46">
+        <v>-0.0640734241600719</v>
+      </c>
+      <c r="H46">
+        <v>-0.1099800511024502</v>
+      </c>
+      <c r="I46">
+        <v>0.01510974860694147</v>
+      </c>
+      <c r="J46">
+        <v>-0.09660643875605517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.00922088082922207</v>
+        <v>0.02047881537165153</v>
       </c>
       <c r="C47">
-        <v>0.1116056120347041</v>
+        <v>0.09805288510744019</v>
       </c>
       <c r="D47">
-        <v>0.02057943406186914</v>
+        <v>-0.02635719281730887</v>
       </c>
       <c r="E47">
-        <v>0.04777232909519993</v>
+        <v>-0.01715552073435234</v>
       </c>
       <c r="F47">
-        <v>-0.02655675428934569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.001937538474354856</v>
+      </c>
+      <c r="G47">
+        <v>-0.000240005665203634</v>
+      </c>
+      <c r="H47">
+        <v>-0.07776839942972967</v>
+      </c>
+      <c r="I47">
+        <v>-0.03589267376422244</v>
+      </c>
+      <c r="J47">
+        <v>-0.02253871704259089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0117143871244266</v>
+        <v>0.01595740097753627</v>
       </c>
       <c r="C48">
-        <v>0.04960128249529784</v>
+        <v>0.05696318785943291</v>
       </c>
       <c r="D48">
-        <v>0.01004755236933572</v>
+        <v>-0.04288491064686412</v>
       </c>
       <c r="E48">
-        <v>-0.06641273988083078</v>
+        <v>0.03654675865374063</v>
       </c>
       <c r="F48">
-        <v>0.03713099381627583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0003681324104634722</v>
+      </c>
+      <c r="G48">
+        <v>-0.03292394681376137</v>
+      </c>
+      <c r="H48">
+        <v>-0.1077635220339722</v>
+      </c>
+      <c r="I48">
+        <v>-0.01016608692924678</v>
+      </c>
+      <c r="J48">
+        <v>0.06317264343663011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006399953696528585</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01422489721973578</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.003636234658622088</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02283154960339346</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.002425194933673055</v>
+      </c>
+      <c r="G49">
+        <v>-0.0159364292372296</v>
+      </c>
+      <c r="H49">
+        <v>0.01063072986708993</v>
+      </c>
+      <c r="I49">
+        <v>0.03062729733240371</v>
+      </c>
+      <c r="J49">
+        <v>0.01563295871116087</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.005331187932091857</v>
+        <v>0.01233383963004534</v>
       </c>
       <c r="C50">
-        <v>0.09342316897265673</v>
+        <v>0.09077340980859674</v>
       </c>
       <c r="D50">
-        <v>0.01513930083621076</v>
+        <v>-0.01296211159102551</v>
       </c>
       <c r="E50">
-        <v>0.01321409773207432</v>
+        <v>-0.005858827471374866</v>
       </c>
       <c r="F50">
-        <v>-0.02833759484362735</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01275991875211995</v>
+      </c>
+      <c r="G50">
+        <v>0.02221229245648559</v>
+      </c>
+      <c r="H50">
+        <v>-0.06206495470976741</v>
+      </c>
+      <c r="I50">
+        <v>-0.06151089932373744</v>
+      </c>
+      <c r="J50">
+        <v>-0.0335156464786317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003490377823599356</v>
+        <v>-0.005790960968263406</v>
       </c>
       <c r="C51">
-        <v>0.05756463409569661</v>
+        <v>0.03916089876076661</v>
       </c>
       <c r="D51">
-        <v>-0.06163054370690552</v>
+        <v>-0.01063424330488887</v>
       </c>
       <c r="E51">
-        <v>-0.07417609085242355</v>
+        <v>0.05173606848937511</v>
       </c>
       <c r="F51">
-        <v>0.025091535596024</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.006951977232305906</v>
+      </c>
+      <c r="G51">
+        <v>-0.0299088918984085</v>
+      </c>
+      <c r="H51">
+        <v>-0.08589949386440544</v>
+      </c>
+      <c r="I51">
+        <v>0.02548776694310271</v>
+      </c>
+      <c r="J51">
+        <v>0.1158754534367713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.04032042289575029</v>
+        <v>0.05031609686461393</v>
       </c>
       <c r="C53">
-        <v>0.1626270994347713</v>
+        <v>0.1474797136961656</v>
       </c>
       <c r="D53">
-        <v>0.0692324700969273</v>
+        <v>-0.04901925911256661</v>
       </c>
       <c r="E53">
-        <v>0.05187279959453767</v>
+        <v>-0.08904070180253704</v>
       </c>
       <c r="F53">
-        <v>0.005702710405131393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0008342149810363604</v>
+      </c>
+      <c r="G53">
+        <v>0.04905147908013462</v>
+      </c>
+      <c r="H53">
+        <v>-0.008318407650707446</v>
+      </c>
+      <c r="I53">
+        <v>-0.05383570133791809</v>
+      </c>
+      <c r="J53">
+        <v>-0.02060265966645749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.004178557345384662</v>
+        <v>0.0121648379838023</v>
       </c>
       <c r="C54">
-        <v>0.05864221493668226</v>
+        <v>0.07164275531286118</v>
       </c>
       <c r="D54">
-        <v>-0.03902620854823742</v>
+        <v>0.006130614585968562</v>
       </c>
       <c r="E54">
-        <v>-0.02496155911225687</v>
+        <v>0.02423087361666026</v>
       </c>
       <c r="F54">
-        <v>0.02498985288476476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002151605061262739</v>
+      </c>
+      <c r="G54">
+        <v>-0.03178203248660998</v>
+      </c>
+      <c r="H54">
+        <v>-0.0783021749440212</v>
+      </c>
+      <c r="I54">
+        <v>0.01424150655052643</v>
+      </c>
+      <c r="J54">
+        <v>-0.04129195155871099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02488864047659168</v>
+        <v>0.02782097373462042</v>
       </c>
       <c r="C55">
-        <v>0.1247668381046532</v>
+        <v>0.1069275924037216</v>
       </c>
       <c r="D55">
-        <v>0.06509916109727537</v>
+        <v>-0.05026510084539906</v>
       </c>
       <c r="E55">
-        <v>0.01760969049577105</v>
+        <v>-0.06724377913518483</v>
       </c>
       <c r="F55">
-        <v>-0.008194442821031508</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01444597478652115</v>
+      </c>
+      <c r="G55">
+        <v>0.02180577820711339</v>
+      </c>
+      <c r="H55">
+        <v>-0.01927235912887179</v>
+      </c>
+      <c r="I55">
+        <v>-0.008409015894148645</v>
+      </c>
+      <c r="J55">
+        <v>-0.004565839273168399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04419599776789188</v>
+        <v>0.04351766318850548</v>
       </c>
       <c r="C56">
-        <v>0.1948999728302077</v>
+        <v>0.1776388578103742</v>
       </c>
       <c r="D56">
-        <v>0.08833080665119117</v>
+        <v>-0.07105074837410111</v>
       </c>
       <c r="E56">
-        <v>0.08963590350477223</v>
+        <v>-0.1278547114231058</v>
       </c>
       <c r="F56">
-        <v>-0.04557096341726961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.008051385976830822</v>
+      </c>
+      <c r="G56">
+        <v>0.104505705665794</v>
+      </c>
+      <c r="H56">
+        <v>-0.003148684530525927</v>
+      </c>
+      <c r="I56">
+        <v>-0.04123501766125535</v>
+      </c>
+      <c r="J56">
+        <v>0.02602530632499378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01025979409373383</v>
+        <v>0.007944477359213017</v>
       </c>
       <c r="C58">
-        <v>0.1835332148475515</v>
+        <v>0.1696193512427212</v>
       </c>
       <c r="D58">
-        <v>-0.2395266810775342</v>
+        <v>0.01623251642108886</v>
       </c>
       <c r="E58">
-        <v>-0.1832650781026808</v>
+        <v>0.2863653384381575</v>
       </c>
       <c r="F58">
-        <v>-0.09627262727153779</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.06803663489630672</v>
+      </c>
+      <c r="G58">
+        <v>0.1751644239239261</v>
+      </c>
+      <c r="H58">
+        <v>-0.02777639352397244</v>
+      </c>
+      <c r="I58">
+        <v>0.06884942151344979</v>
+      </c>
+      <c r="J58">
+        <v>0.3548373060838782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.2609170298373835</v>
+        <v>0.2779749448214299</v>
       </c>
       <c r="C59">
-        <v>-0.01547941611233144</v>
+        <v>-0.03285029260377082</v>
       </c>
       <c r="D59">
-        <v>-0.0711429784844585</v>
+        <v>0.01323680111494816</v>
       </c>
       <c r="E59">
-        <v>-0.00586283519080556</v>
+        <v>0.05168763709669671</v>
       </c>
       <c r="F59">
-        <v>-0.0187850597016971</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01561700889630066</v>
+      </c>
+      <c r="G59">
+        <v>0.01681770585257542</v>
+      </c>
+      <c r="H59">
+        <v>0.02284521827444768</v>
+      </c>
+      <c r="I59">
+        <v>-0.09597920608031772</v>
+      </c>
+      <c r="J59">
+        <v>0.01276140707122338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.119505996273561</v>
+        <v>0.1463919487141525</v>
       </c>
       <c r="C60">
-        <v>0.1518734010956612</v>
+        <v>0.1621615726819156</v>
       </c>
       <c r="D60">
-        <v>0.05444434491828234</v>
+        <v>-0.03502946054999903</v>
       </c>
       <c r="E60">
-        <v>-0.006098346833831906</v>
+        <v>-0.03952021043815688</v>
       </c>
       <c r="F60">
-        <v>0.2172893517779728</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08276205923444675</v>
+      </c>
+      <c r="G60">
+        <v>-0.2235877502719263</v>
+      </c>
+      <c r="H60">
+        <v>0.2846656624043953</v>
+      </c>
+      <c r="I60">
+        <v>0.07058161497299019</v>
+      </c>
+      <c r="J60">
+        <v>0.001069096030798283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.003453818391606161</v>
+        <v>0.01397468538029613</v>
       </c>
       <c r="C61">
-        <v>0.09633254603482044</v>
+        <v>0.1067882031303519</v>
       </c>
       <c r="D61">
-        <v>0.004125553253611847</v>
+        <v>-0.03389525412588646</v>
       </c>
       <c r="E61">
-        <v>-0.0333444932045219</v>
+        <v>0.009101284533859645</v>
       </c>
       <c r="F61">
-        <v>0.07519282981145765</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.004318781698286809</v>
+      </c>
+      <c r="G61">
+        <v>-0.05869913992363775</v>
+      </c>
+      <c r="H61">
+        <v>-0.04076870245726903</v>
+      </c>
+      <c r="I61">
+        <v>0.005353878555653547</v>
+      </c>
+      <c r="J61">
+        <v>-0.03827372069752744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0002446994700988315</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004558897801720159</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.006344961094428905</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01535055723406485</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0007748313444521056</v>
+      </c>
+      <c r="G62">
+        <v>-0.01905691324267029</v>
+      </c>
+      <c r="H62">
+        <v>-0.01183127002672708</v>
+      </c>
+      <c r="I62">
+        <v>0.005859147126616525</v>
+      </c>
+      <c r="J62">
+        <v>-0.0106672437766811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.00601929683933242</v>
+        <v>0.01682080832823338</v>
       </c>
       <c r="C63">
-        <v>0.06132327524760212</v>
+        <v>0.07524059183699472</v>
       </c>
       <c r="D63">
-        <v>-0.012057234764703</v>
+        <v>-0.03397407905540432</v>
       </c>
       <c r="E63">
-        <v>-0.0323206005740999</v>
+        <v>0.02525683987679716</v>
       </c>
       <c r="F63">
-        <v>0.04979299207712874</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004739540205610097</v>
+      </c>
+      <c r="G63">
+        <v>-0.04193754728425175</v>
+      </c>
+      <c r="H63">
+        <v>-0.05918280992855529</v>
+      </c>
+      <c r="I63">
+        <v>-0.02401523895291574</v>
+      </c>
+      <c r="J63">
+        <v>-0.02197819749585728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.006134514100808439</v>
+        <v>0.01363616253025869</v>
       </c>
       <c r="C64">
-        <v>0.1269001234391543</v>
+        <v>0.1049344980638534</v>
       </c>
       <c r="D64">
-        <v>0.05491667029400403</v>
+        <v>-0.02698060737293462</v>
       </c>
       <c r="E64">
-        <v>-0.01180250963347428</v>
+        <v>0.002612889908593359</v>
       </c>
       <c r="F64">
-        <v>0.04341069893232593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02839180165330423</v>
+      </c>
+      <c r="G64">
+        <v>-0.01771804602750599</v>
+      </c>
+      <c r="H64">
+        <v>-0.009832203143461648</v>
+      </c>
+      <c r="I64">
+        <v>-0.0009514490813149195</v>
+      </c>
+      <c r="J64">
+        <v>-0.04324707763049689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.0122042197455259</v>
+        <v>0.02367173416673345</v>
       </c>
       <c r="C65">
-        <v>0.07061900080742393</v>
+        <v>0.0881364885904654</v>
       </c>
       <c r="D65">
-        <v>-0.04608821914059633</v>
+        <v>0.005461016911398179</v>
       </c>
       <c r="E65">
-        <v>-0.06136542986911499</v>
+        <v>0.07367163493236339</v>
       </c>
       <c r="F65">
-        <v>0.0581856134641061</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01302247002792524</v>
+      </c>
+      <c r="G65">
+        <v>-0.1030919704195992</v>
+      </c>
+      <c r="H65">
+        <v>0.02743006109018769</v>
+      </c>
+      <c r="I65">
+        <v>0.06497424735837914</v>
+      </c>
+      <c r="J65">
+        <v>0.02900739767233167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002466613083712075</v>
+        <v>0.006140489115645716</v>
       </c>
       <c r="C66">
-        <v>0.1565751899810889</v>
+        <v>0.1612993370142987</v>
       </c>
       <c r="D66">
-        <v>-0.058326845065317</v>
+        <v>-0.01959534181091259</v>
       </c>
       <c r="E66">
-        <v>-0.08449252492829624</v>
+        <v>0.05460601015757522</v>
       </c>
       <c r="F66">
-        <v>0.0635402293301688</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.007700308412070345</v>
+      </c>
+      <c r="G66">
+        <v>-0.04102450628642427</v>
+      </c>
+      <c r="H66">
+        <v>-0.03757017236405558</v>
+      </c>
+      <c r="I66">
+        <v>0.02669178671888317</v>
+      </c>
+      <c r="J66">
+        <v>0.001425800263356244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01952079259995484</v>
+        <v>0.0184050167621925</v>
       </c>
       <c r="C67">
-        <v>0.04488256411528988</v>
+        <v>0.05904691046690694</v>
       </c>
       <c r="D67">
-        <v>0.02799802131798437</v>
+        <v>-0.03071496666871016</v>
       </c>
       <c r="E67">
-        <v>-0.02355276987017853</v>
+        <v>0.00758050425038906</v>
       </c>
       <c r="F67">
-        <v>0.01800272400136418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03494802018070829</v>
+      </c>
+      <c r="G67">
+        <v>-0.04337975280539247</v>
+      </c>
+      <c r="H67">
+        <v>-0.02780886567757216</v>
+      </c>
+      <c r="I67">
+        <v>-0.02428231599767808</v>
+      </c>
+      <c r="J67">
+        <v>-0.06450589396847461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2569321778119939</v>
+        <v>0.2864431707180274</v>
       </c>
       <c r="C68">
-        <v>-0.03302636651497329</v>
+        <v>-0.03934194173044137</v>
       </c>
       <c r="D68">
-        <v>-0.05953729369381235</v>
+        <v>0.03530853455075361</v>
       </c>
       <c r="E68">
-        <v>-0.01166140883949127</v>
+        <v>0.06133980730662426</v>
       </c>
       <c r="F68">
-        <v>-0.04671994624247067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01352911885377295</v>
+      </c>
+      <c r="G68">
+        <v>0.0429794391658411</v>
+      </c>
+      <c r="H68">
+        <v>0.0224467766816258</v>
+      </c>
+      <c r="I68">
+        <v>-0.07998900889830646</v>
+      </c>
+      <c r="J68">
+        <v>-0.00145801210157372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01194953142907834</v>
+        <v>0.008530386744082337</v>
       </c>
       <c r="C69">
-        <v>0.1071561038974515</v>
+        <v>0.0800327877851703</v>
       </c>
       <c r="D69">
-        <v>0.05286293417588738</v>
+        <v>-0.02362964940712968</v>
       </c>
       <c r="E69">
-        <v>-0.0003418082533954213</v>
+        <v>-0.01935948015880693</v>
       </c>
       <c r="F69">
-        <v>-0.01868448813677761</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003754450664002409</v>
+      </c>
+      <c r="G69">
+        <v>-0.008428225157751571</v>
+      </c>
+      <c r="H69">
+        <v>-0.05585322097617134</v>
+      </c>
+      <c r="I69">
+        <v>-0.03272599773786292</v>
+      </c>
+      <c r="J69">
+        <v>-0.007262527459534473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2747274655513454</v>
+        <v>0.2751040393339697</v>
       </c>
       <c r="C71">
-        <v>-0.04273174491893087</v>
+        <v>-0.06189945594843153</v>
       </c>
       <c r="D71">
-        <v>-0.05152227862114515</v>
+        <v>0.01841408487451814</v>
       </c>
       <c r="E71">
-        <v>0.01873058052216458</v>
+        <v>0.03931836524820023</v>
       </c>
       <c r="F71">
-        <v>0.02822468407383983</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03520843503972727</v>
+      </c>
+      <c r="G71">
+        <v>0.0001923116646413229</v>
+      </c>
+      <c r="H71">
+        <v>-0.05270433366959554</v>
+      </c>
+      <c r="I71">
+        <v>-0.1122068004360233</v>
+      </c>
+      <c r="J71">
+        <v>0.08608789291445841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05923731047347554</v>
+        <v>0.05928851433961692</v>
       </c>
       <c r="C72">
-        <v>0.1847628771262337</v>
+        <v>0.1589793247494716</v>
       </c>
       <c r="D72">
-        <v>0.03826131969567956</v>
+        <v>-0.01948769604616945</v>
       </c>
       <c r="E72">
-        <v>-0.06558028710740692</v>
+        <v>-0.02438282646848972</v>
       </c>
       <c r="F72">
-        <v>0.08991703927989705</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01949497610056353</v>
+      </c>
+      <c r="G72">
+        <v>-0.03204319613100548</v>
+      </c>
+      <c r="H72">
+        <v>0.05218998534204444</v>
+      </c>
+      <c r="I72">
+        <v>0.09940094546028642</v>
+      </c>
+      <c r="J72">
+        <v>-0.02480690439173366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1025327409590784</v>
+        <v>0.1496135747723914</v>
       </c>
       <c r="C73">
-        <v>0.1567932643499374</v>
+        <v>0.198624812904745</v>
       </c>
       <c r="D73">
-        <v>0.09363097571892533</v>
+        <v>-0.05496031070116508</v>
       </c>
       <c r="E73">
-        <v>0.01275791828781468</v>
+        <v>-0.1016944296020307</v>
       </c>
       <c r="F73">
-        <v>0.3191540588061132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09534369485312434</v>
+      </c>
+      <c r="G73">
+        <v>-0.3835478394889134</v>
+      </c>
+      <c r="H73">
+        <v>0.3454836152137503</v>
+      </c>
+      <c r="I73">
+        <v>-0.003687072134084048</v>
+      </c>
+      <c r="J73">
+        <v>0.1015626073195127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02759184069077646</v>
+        <v>0.03550970273575155</v>
       </c>
       <c r="C74">
-        <v>0.1186964105745939</v>
+        <v>0.1159006116004862</v>
       </c>
       <c r="D74">
-        <v>0.09930907283308704</v>
+        <v>-0.0459130811513648</v>
       </c>
       <c r="E74">
-        <v>0.05389570878345225</v>
+        <v>-0.08202004543633148</v>
       </c>
       <c r="F74">
-        <v>-0.01591800490843493</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.003611198037807292</v>
+      </c>
+      <c r="G74">
+        <v>0.02958270948543473</v>
+      </c>
+      <c r="H74">
+        <v>-0.01406658941366155</v>
+      </c>
+      <c r="I74">
+        <v>-0.01136902209610948</v>
+      </c>
+      <c r="J74">
+        <v>-0.004314816145298028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09561175220128007</v>
+        <v>0.068748829607192</v>
       </c>
       <c r="C75">
-        <v>0.2116401557632245</v>
+        <v>0.1948230064978966</v>
       </c>
       <c r="D75">
-        <v>0.2048212997404688</v>
+        <v>-0.08804302920267207</v>
       </c>
       <c r="E75">
-        <v>0.1637405053509422</v>
+        <v>-0.2297405456589698</v>
       </c>
       <c r="F75">
-        <v>-0.07638139406680805</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08011978439397342</v>
+      </c>
+      <c r="G75">
+        <v>0.1522275497889948</v>
+      </c>
+      <c r="H75">
+        <v>0.01892332222468396</v>
+      </c>
+      <c r="I75">
+        <v>-0.07377311622804134</v>
+      </c>
+      <c r="J75">
+        <v>-0.05447369096291309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04215915832100485</v>
+        <v>0.03976666767812323</v>
       </c>
       <c r="C76">
-        <v>0.1469175767739935</v>
+        <v>0.1420668378091648</v>
       </c>
       <c r="D76">
-        <v>0.1026075949309147</v>
+        <v>-0.07520609654000095</v>
       </c>
       <c r="E76">
-        <v>0.05401570023454959</v>
+        <v>-0.108306032484063</v>
       </c>
       <c r="F76">
-        <v>-0.00487218556351585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0001686892373871147</v>
+      </c>
+      <c r="G76">
+        <v>0.03095834245761028</v>
+      </c>
+      <c r="H76">
+        <v>-0.01391126450442427</v>
+      </c>
+      <c r="I76">
+        <v>-0.01942008018792668</v>
+      </c>
+      <c r="J76">
+        <v>-0.02795248196012218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.02689304873701302</v>
+        <v>0.02345275269293056</v>
       </c>
       <c r="C77">
-        <v>0.1746489202954832</v>
+        <v>0.2574927218787126</v>
       </c>
       <c r="D77">
-        <v>-0.6397401791075988</v>
+        <v>0.9436390606581738</v>
       </c>
       <c r="E77">
-        <v>0.6514810325246665</v>
+        <v>-0.1549942303425647</v>
       </c>
       <c r="F77">
-        <v>0.1073604994124466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02288399332087036</v>
+      </c>
+      <c r="G77">
+        <v>-0.001039832470185715</v>
+      </c>
+      <c r="H77">
+        <v>-0.0435486485254637</v>
+      </c>
+      <c r="I77">
+        <v>0.01928890744786146</v>
+      </c>
+      <c r="J77">
+        <v>-0.007284163902603059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02327836549369375</v>
+        <v>0.02503519789606992</v>
       </c>
       <c r="C78">
-        <v>0.1561939090037832</v>
+        <v>0.1269226016848965</v>
       </c>
       <c r="D78">
-        <v>-0.05565958983363953</v>
+        <v>-0.06415860624729938</v>
       </c>
       <c r="E78">
-        <v>-0.09764008604551756</v>
+        <v>0.03361100051009395</v>
       </c>
       <c r="F78">
-        <v>-0.1175178345153191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02259453983181517</v>
+      </c>
+      <c r="G78">
+        <v>0.06797718500526373</v>
+      </c>
+      <c r="H78">
+        <v>-0.1393954462678176</v>
+      </c>
+      <c r="I78">
+        <v>0.1602410034150418</v>
+      </c>
+      <c r="J78">
+        <v>0.4973288193702624</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05833436641096418</v>
+        <v>0.0580518870497533</v>
       </c>
       <c r="C79">
-        <v>0.2440517896151929</v>
+        <v>0.1849768159263854</v>
       </c>
       <c r="D79">
-        <v>0.1774159628102533</v>
+        <v>-0.07123537297668107</v>
       </c>
       <c r="E79">
-        <v>0.1358061381170828</v>
+        <v>-0.1798552248773103</v>
       </c>
       <c r="F79">
-        <v>-0.1816098712295278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.00392874198343972</v>
+      </c>
+      <c r="G79">
+        <v>0.1977302767174565</v>
+      </c>
+      <c r="H79">
+        <v>-0.06236772488093642</v>
+      </c>
+      <c r="I79">
+        <v>-0.08667367011431514</v>
+      </c>
+      <c r="J79">
+        <v>0.02847368062326169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0141032130040974</v>
+        <v>0.007550410023048346</v>
       </c>
       <c r="C80">
-        <v>0.0685999090813536</v>
+        <v>0.06241477041479948</v>
       </c>
       <c r="D80">
-        <v>0.02645422112121497</v>
+        <v>-0.04124191117298027</v>
       </c>
       <c r="E80">
-        <v>-0.01207033220907505</v>
+        <v>0.03185130818866662</v>
       </c>
       <c r="F80">
-        <v>0.007194120965453589</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06978859052422633</v>
+      </c>
+      <c r="G80">
+        <v>-0.03956551745607901</v>
+      </c>
+      <c r="H80">
+        <v>0.05385646634045888</v>
+      </c>
+      <c r="I80">
+        <v>-0.05854782396938864</v>
+      </c>
+      <c r="J80">
+        <v>-0.07678732238197933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03126949627572408</v>
+        <v>0.02093859145242073</v>
       </c>
       <c r="C81">
-        <v>0.1290314783498429</v>
+        <v>0.1184795562456978</v>
       </c>
       <c r="D81">
-        <v>0.1287792255541184</v>
+        <v>-0.04723438897947924</v>
       </c>
       <c r="E81">
-        <v>0.113503357801301</v>
+        <v>-0.1052512131555843</v>
       </c>
       <c r="F81">
-        <v>-0.04368422186628306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01210020067860265</v>
+      </c>
+      <c r="G81">
+        <v>0.08624234848395444</v>
+      </c>
+      <c r="H81">
+        <v>-0.06941015196366</v>
+      </c>
+      <c r="I81">
+        <v>-0.08897311930075374</v>
+      </c>
+      <c r="J81">
+        <v>-0.02964604222492999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05322128976230707</v>
+        <v>0.04800422593074911</v>
       </c>
       <c r="C82">
-        <v>0.1568360889109268</v>
+        <v>0.1327680459495781</v>
       </c>
       <c r="D82">
-        <v>0.1405553821491264</v>
+        <v>-0.07345851249708062</v>
       </c>
       <c r="E82">
-        <v>0.07987547303502217</v>
+        <v>-0.1259995645925799</v>
       </c>
       <c r="F82">
-        <v>-0.00537978959919874</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001737499856519643</v>
+      </c>
+      <c r="G82">
+        <v>0.05561250127589825</v>
+      </c>
+      <c r="H82">
+        <v>-0.03146523116552937</v>
+      </c>
+      <c r="I82">
+        <v>-0.05573162451774354</v>
+      </c>
+      <c r="J82">
+        <v>-0.01629697124232535</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.005327324555929267</v>
+        <v>0.004044003527956666</v>
       </c>
       <c r="C83">
-        <v>0.05070751379175369</v>
+        <v>0.01244217459260354</v>
       </c>
       <c r="D83">
-        <v>-0.1154569290973639</v>
+        <v>0.04190728522938655</v>
       </c>
       <c r="E83">
-        <v>0.07694751659097737</v>
+        <v>0.08982858727387755</v>
       </c>
       <c r="F83">
-        <v>-0.6077827001985645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9253145616974278</v>
+      </c>
+      <c r="G83">
+        <v>0.2316108478865283</v>
+      </c>
+      <c r="H83">
+        <v>0.04670609194815926</v>
+      </c>
+      <c r="I83">
+        <v>-0.1176797628873709</v>
+      </c>
+      <c r="J83">
+        <v>-0.003667589772468856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.002444143384808179</v>
+        <v>-0.00182454458345493</v>
       </c>
       <c r="C84">
-        <v>0.03301353182383147</v>
+        <v>0.03811861039719939</v>
       </c>
       <c r="D84">
-        <v>-0.02485150297509509</v>
+        <v>-0.04637777593282787</v>
       </c>
       <c r="E84">
-        <v>-0.08956985164079673</v>
+        <v>0.07584037251248654</v>
       </c>
       <c r="F84">
-        <v>-0.01101249278580103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04926545510259891</v>
+      </c>
+      <c r="G84">
+        <v>0.03878779390351478</v>
+      </c>
+      <c r="H84">
+        <v>-0.06976701383463095</v>
+      </c>
+      <c r="I84">
+        <v>0.04413655375973561</v>
+      </c>
+      <c r="J84">
+        <v>-0.07704766386749369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.04089760971471703</v>
+        <v>0.03201662046386063</v>
       </c>
       <c r="C85">
-        <v>0.1705511989006634</v>
+        <v>0.1402863601526556</v>
       </c>
       <c r="D85">
-        <v>0.15059396402669</v>
+        <v>-0.08532008589134978</v>
       </c>
       <c r="E85">
-        <v>0.1002591371197869</v>
+        <v>-0.1802951942994748</v>
       </c>
       <c r="F85">
-        <v>-0.1288648777415615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.006857381560312969</v>
+      </c>
+      <c r="G85">
+        <v>0.1232198636244497</v>
+      </c>
+      <c r="H85">
+        <v>-0.02121962475462032</v>
+      </c>
+      <c r="I85">
+        <v>-0.07071348024577603</v>
+      </c>
+      <c r="J85">
+        <v>-0.03480391914943656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03840538357775389</v>
+        <v>0.0199854061251999</v>
       </c>
       <c r="C86">
-        <v>0.04866191653946083</v>
+        <v>0.07035989541503725</v>
       </c>
       <c r="D86">
-        <v>-0.09332562992628905</v>
+        <v>0.002710685776763265</v>
       </c>
       <c r="E86">
-        <v>-0.02145056894532586</v>
+        <v>0.06854171502221913</v>
       </c>
       <c r="F86">
-        <v>0.05216449846302455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.04951888141855035</v>
+      </c>
+      <c r="G86">
+        <v>0.06364031806818908</v>
+      </c>
+      <c r="H86">
+        <v>-0.09147149735729131</v>
+      </c>
+      <c r="I86">
+        <v>-0.05849095791210135</v>
+      </c>
+      <c r="J86">
+        <v>0.1878579477564158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02941077880773785</v>
+        <v>0.01754358670774365</v>
       </c>
       <c r="C87">
-        <v>0.1254873647451921</v>
+        <v>0.1236701197898765</v>
       </c>
       <c r="D87">
-        <v>-0.09587486019893417</v>
+        <v>0.01185450378568476</v>
       </c>
       <c r="E87">
-        <v>-0.1047736727922335</v>
+        <v>0.1010101868068546</v>
       </c>
       <c r="F87">
-        <v>0.00289445827681904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02044714697700629</v>
+      </c>
+      <c r="G87">
+        <v>0.01944573561963618</v>
+      </c>
+      <c r="H87">
+        <v>-0.02257669962281823</v>
+      </c>
+      <c r="I87">
+        <v>0.1382751510638332</v>
+      </c>
+      <c r="J87">
+        <v>0.08699767027096635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01941978264697788</v>
+        <v>0.03446225740937005</v>
       </c>
       <c r="C88">
-        <v>0.07521981966375746</v>
+        <v>0.08284161821972783</v>
       </c>
       <c r="D88">
-        <v>0.06469012964580877</v>
+        <v>-0.03053776030683087</v>
       </c>
       <c r="E88">
-        <v>0.01819567580110756</v>
+        <v>-0.0161798361752663</v>
       </c>
       <c r="F88">
-        <v>0.03215581961015888</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0102457355628463</v>
+      </c>
+      <c r="G88">
+        <v>-0.02288370481968803</v>
+      </c>
+      <c r="H88">
+        <v>0.007671251097979328</v>
+      </c>
+      <c r="I88">
+        <v>-0.03299339307301045</v>
+      </c>
+      <c r="J88">
+        <v>-0.08489111555512018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4463522080710204</v>
+        <v>0.4070332508706828</v>
       </c>
       <c r="C89">
-        <v>-0.09415742948524398</v>
+        <v>-0.1130197159295542</v>
       </c>
       <c r="D89">
-        <v>0.05949944366241913</v>
+        <v>0.01036899932502661</v>
       </c>
       <c r="E89">
-        <v>-0.2680284174856668</v>
+        <v>0.05762837902051738</v>
       </c>
       <c r="F89">
-        <v>-0.15074614237404</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.09613045354158183</v>
+      </c>
+      <c r="G89">
+        <v>0.07762090322024925</v>
+      </c>
+      <c r="H89">
+        <v>-0.07888621807138889</v>
+      </c>
+      <c r="I89">
+        <v>0.7526093847385346</v>
+      </c>
+      <c r="J89">
+        <v>-0.1440514311015682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3119604252868829</v>
+        <v>0.3194827926391042</v>
       </c>
       <c r="C90">
-        <v>-0.04407970140760501</v>
+        <v>-0.06103013905991976</v>
       </c>
       <c r="D90">
-        <v>-0.06582873565277247</v>
+        <v>0.01886523262422704</v>
       </c>
       <c r="E90">
-        <v>0.0207406085390172</v>
+        <v>0.03322540134747375</v>
       </c>
       <c r="F90">
-        <v>0.002314898027263825</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01644903876797653</v>
+      </c>
+      <c r="G90">
+        <v>0.0130475277590876</v>
+      </c>
+      <c r="H90">
+        <v>0.0150469646939116</v>
+      </c>
+      <c r="I90">
+        <v>-0.1543644173018908</v>
+      </c>
+      <c r="J90">
+        <v>0.00655030059991179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04064711387767037</v>
+        <v>0.05051920475055136</v>
       </c>
       <c r="C91">
-        <v>0.1373084940166582</v>
+        <v>0.1180073194095154</v>
       </c>
       <c r="D91">
-        <v>0.08547772120330102</v>
+        <v>-0.03854028203851195</v>
       </c>
       <c r="E91">
-        <v>0.07048150770655069</v>
+        <v>-0.09270413125337157</v>
       </c>
       <c r="F91">
-        <v>-0.05643873489525772</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.03072205362822574</v>
+      </c>
+      <c r="G91">
+        <v>0.06895489712518803</v>
+      </c>
+      <c r="H91">
+        <v>-0.0125492925705757</v>
+      </c>
+      <c r="I91">
+        <v>-0.03226711632781364</v>
+      </c>
+      <c r="J91">
+        <v>-0.03430890619868825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3509171705509173</v>
+        <v>0.3499448015551146</v>
       </c>
       <c r="C92">
-        <v>-0.1000710893674335</v>
+        <v>-0.114237195755131</v>
       </c>
       <c r="D92">
-        <v>-0.06850081957934286</v>
+        <v>0.04743140078698394</v>
       </c>
       <c r="E92">
-        <v>0.01265471732012618</v>
+        <v>0.06946004421650678</v>
       </c>
       <c r="F92">
-        <v>0.06352510249225335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1002805722185085</v>
+      </c>
+      <c r="G92">
+        <v>0.009087303604798229</v>
+      </c>
+      <c r="H92">
+        <v>-0.05049627051544781</v>
+      </c>
+      <c r="I92">
+        <v>-0.1556058072743308</v>
+      </c>
+      <c r="J92">
+        <v>-0.01011528599668193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3314792690491818</v>
+        <v>0.3233928756819714</v>
       </c>
       <c r="C93">
-        <v>-0.0820235217859601</v>
+        <v>-0.105816418808788</v>
       </c>
       <c r="D93">
-        <v>0.01193880355834185</v>
+        <v>-0.003257641396838418</v>
       </c>
       <c r="E93">
-        <v>0.03397480928468874</v>
+        <v>-0.005008625155119033</v>
       </c>
       <c r="F93">
-        <v>0.005950257992731241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01887859645058748</v>
+      </c>
+      <c r="G93">
+        <v>0.02905296366512708</v>
+      </c>
+      <c r="H93">
+        <v>-0.03861393466357414</v>
+      </c>
+      <c r="I93">
+        <v>-0.120143010118526</v>
+      </c>
+      <c r="J93">
+        <v>0.04824806304436878</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08992726266082095</v>
+        <v>0.0837713683484797</v>
       </c>
       <c r="C94">
-        <v>0.2250986924477872</v>
+        <v>0.1986336468399351</v>
       </c>
       <c r="D94">
-        <v>0.2471417226013459</v>
+        <v>-0.1136437774134852</v>
       </c>
       <c r="E94">
-        <v>0.1478708871729512</v>
+        <v>-0.3191845179428369</v>
       </c>
       <c r="F94">
-        <v>-0.2248742830766521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.03402546073322211</v>
+      </c>
+      <c r="G94">
+        <v>0.3818556987212071</v>
+      </c>
+      <c r="H94">
+        <v>0.03298539235456178</v>
+      </c>
+      <c r="I94">
+        <v>0.1981417252468394</v>
+      </c>
+      <c r="J94">
+        <v>-0.1790055532951372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02468855434036681</v>
+        <v>0.03310349974052487</v>
       </c>
       <c r="C95">
-        <v>0.06712905689790892</v>
+        <v>0.1139421535292111</v>
       </c>
       <c r="D95">
-        <v>0.001523144855743104</v>
+        <v>-0.006547605384591411</v>
       </c>
       <c r="E95">
-        <v>7.17688600355515e-05</v>
+        <v>0.004135308412044374</v>
       </c>
       <c r="F95">
-        <v>0.1386752980212326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.0261845035419229</v>
+      </c>
+      <c r="G95">
+        <v>-0.1270679923750599</v>
+      </c>
+      <c r="H95">
+        <v>-0.03069241382599698</v>
+      </c>
+      <c r="I95">
+        <v>0.01462290668380425</v>
+      </c>
+      <c r="J95">
+        <v>-0.1346216290159676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004699399695986886</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.009878835887642868</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02079552870471734</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.01471387847074854</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01086687747445269</v>
+      </c>
+      <c r="G97">
+        <v>-0.03334826375150434</v>
+      </c>
+      <c r="H97">
+        <v>0.01278971575105533</v>
+      </c>
+      <c r="I97">
+        <v>-0.007288098244005442</v>
+      </c>
+      <c r="J97">
+        <v>0.007433523042283328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08549979050305907</v>
+        <v>0.1310971621952008</v>
       </c>
       <c r="C98">
-        <v>0.1501805950027933</v>
+        <v>0.1694038951508065</v>
       </c>
       <c r="D98">
-        <v>0.03412999540689527</v>
+        <v>-0.06116804051084029</v>
       </c>
       <c r="E98">
-        <v>-0.02407471527453142</v>
+        <v>-0.06868262094724469</v>
       </c>
       <c r="F98">
-        <v>0.2380276154367402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.0582144924434732</v>
+      </c>
+      <c r="G98">
+        <v>-0.3351134041317039</v>
+      </c>
+      <c r="H98">
+        <v>0.3613948799009628</v>
+      </c>
+      <c r="I98">
+        <v>0.04891290499225789</v>
+      </c>
+      <c r="J98">
+        <v>0.1473752352356347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.000449962068924228</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.007016924739496885</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.007659705493219765</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.008922632263398759</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.01192543600533691</v>
+      </c>
+      <c r="G99">
+        <v>-0.01041119993306829</v>
+      </c>
+      <c r="H99">
+        <v>-0.03884715214664015</v>
+      </c>
+      <c r="I99">
+        <v>0.01757964877752026</v>
+      </c>
+      <c r="J99">
+        <v>-0.00693108275167083</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.002706756312986377</v>
+        <v>0.007584871059451724</v>
       </c>
       <c r="C101">
-        <v>0.05696215869067115</v>
+        <v>0.07868597181335209</v>
       </c>
       <c r="D101">
-        <v>-0.04222514390213857</v>
+        <v>-0.01958043517340966</v>
       </c>
       <c r="E101">
-        <v>-0.09041722058371121</v>
+        <v>0.1220518776724466</v>
       </c>
       <c r="F101">
-        <v>0.07650153669613928</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04901304969716103</v>
+      </c>
+      <c r="G101">
+        <v>-0.1616548429444558</v>
+      </c>
+      <c r="H101">
+        <v>-0.2518295286452428</v>
+      </c>
+      <c r="I101">
+        <v>0.04187777486461901</v>
+      </c>
+      <c r="J101">
+        <v>-0.2325201205733753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.02025705821788814</v>
+        <v>0.008361251148088793</v>
       </c>
       <c r="C102">
-        <v>0.08416591505767966</v>
+        <v>0.04019985184638195</v>
       </c>
       <c r="D102">
-        <v>0.05985801519420097</v>
+        <v>-0.01861000774237372</v>
       </c>
       <c r="E102">
-        <v>0.03830002738738529</v>
+        <v>-0.04536511394917141</v>
       </c>
       <c r="F102">
-        <v>-0.04589390364029214</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01295295644815809</v>
+      </c>
+      <c r="G102">
+        <v>0.04306065573392438</v>
+      </c>
+      <c r="H102">
+        <v>-0.01495242423557367</v>
+      </c>
+      <c r="I102">
+        <v>0.005315526035410955</v>
+      </c>
+      <c r="J102">
+        <v>-0.004643150317367971</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
